--- a/Download/Capi_ZPZS.xlsx
+++ b/Download/Capi_ZPZS.xlsx
@@ -115,10 +115,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>133.0</v>
+        <v>155.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1519.0</v>
+        <v>1652.0</v>
       </c>
     </row>
   </sheetData>
@@ -162,10 +162,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" t="n">
-        <v>185.0</v>
+        <v>177.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Capi_ZPZS.xlsx
+++ b/Download/Capi_ZPZS.xlsx
@@ -115,10 +115,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0</v>
+        <v>151.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1652.0</v>
+        <v>1798.0</v>
       </c>
     </row>
   </sheetData>
@@ -165,7 +165,7 @@
         <v>8.0</v>
       </c>
       <c r="E2" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Capi_ZPZS.xlsx
+++ b/Download/Capi_ZPZS.xlsx
@@ -13,30 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>REGIONE</t>
+    <t>ZP_ZS</t>
   </si>
   <si>
-    <t>SIGLA PROVINCIA</t>
-  </si>
-  <si>
-    <t>ORIENTAMENTO PRODUTTIVO</t>
-  </si>
-  <si>
-    <t>SEMI BRADO</t>
-  </si>
-  <si>
-    <t>STABULATO</t>
-  </si>
-  <si>
-    <t>SARDEGNA</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>DA RIPRODUZIONE</t>
+    <t>Assente</t>
   </si>
 </sst>
 </file>
@@ -91,34 +73,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1798.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -138,34 +96,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>176.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
